--- a/Logistic 2021 Model/2021-NCAA-Mens-Basketball-Championship-Bracket-Logistic.xlsx
+++ b/Logistic 2021 Model/2021-NCAA-Mens-Basketball-Championship-Bracket-Logistic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbell/Documents/GitHub/edgeproject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbell/Documents/GitHub/edgeproject/Logistic 2021 Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26963BD4-1013-964F-AD9B-AA375266508B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59C1AF-F281-C343-BCCB-23986CB91EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <t>Bracket Score, ESPN Percentile</t>
   </si>
   <si>
-    <t>1080, 88.6%</t>
+    <t>1020, 88.6%</t>
   </si>
 </sst>
 </file>
@@ -779,89 +779,143 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,106 +927,52 @@
     <xf numFmtId="49" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:AL87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1340,44 +1340,44 @@
   <sheetData>
     <row r="1" spans="1:38" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1422,10 +1422,10 @@
     </row>
     <row r="3" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="102">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="110" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="8"/>
@@ -1460,18 +1460,18 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
-      <c r="AJ3" s="130" t="s">
+      <c r="AJ3" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="AK3" s="74">
+      <c r="AK3" s="95">
         <v>1</v>
       </c>
       <c r="AL3" s="3"/>
     </row>
     <row r="4" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="116"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="111"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9"/>
@@ -1504,21 +1504,21 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="75"/>
+      <c r="AJ4" s="94"/>
+      <c r="AK4" s="96"/>
       <c r="AL4" s="3"/>
     </row>
     <row r="5" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="88">
+      <c r="B5" s="107">
         <v>16</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="144" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="117" t="s">
+      <c r="F5" s="131" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="3"/>
@@ -1547,23 +1547,23 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="10"/>
       <c r="AF5" s="10"/>
-      <c r="AG5" s="132" t="s">
+      <c r="AG5" s="150" t="s">
         <v>11</v>
       </c>
       <c r="AH5" s="14"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="85" t="s">
+      <c r="AJ5" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="78">
+      <c r="AK5" s="101">
         <v>16</v>
       </c>
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="73"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="3"/>
       <c r="E6" s="15"/>
       <c r="F6" s="118"/>
@@ -1593,11 +1593,11 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="10"/>
       <c r="AF6" s="10"/>
-      <c r="AG6" s="133"/>
+      <c r="AG6" s="137"/>
       <c r="AH6" s="17"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
+      <c r="AJ6" s="102"/>
+      <c r="AK6" s="102"/>
       <c r="AL6" s="3"/>
     </row>
     <row r="7" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1642,15 +1642,15 @@
     </row>
     <row r="8" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="102">
+      <c r="B8" s="109">
         <v>8</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="124" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="128" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="8"/>
@@ -1679,26 +1679,26 @@
       <c r="AD8" s="21"/>
       <c r="AE8" s="25"/>
       <c r="AF8" s="25"/>
-      <c r="AG8" s="80" t="s">
+      <c r="AG8" s="133" t="s">
         <v>22</v>
       </c>
       <c r="AH8" s="17"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="84" t="s">
+      <c r="AJ8" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="AK8" s="74">
+      <c r="AK8" s="95">
         <v>8</v>
       </c>
       <c r="AL8" s="3"/>
     </row>
     <row r="9" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="139"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="79"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="9"/>
@@ -1725,19 +1725,19 @@
       <c r="AD9" s="21"/>
       <c r="AE9" s="27"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="81"/>
+      <c r="AG9" s="86"/>
       <c r="AH9" s="28"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="75"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="96"/>
       <c r="AL9" s="3"/>
     </row>
     <row r="10" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
-      <c r="B10" s="88">
+      <c r="B10" s="107">
         <v>9</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="3"/>
@@ -1745,11 +1745,11 @@
       <c r="F10" s="9"/>
       <c r="G10" s="3"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="121"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1766,35 +1766,35 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="134" t="s">
+      <c r="AB10" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
       <c r="AE10" s="29"/>
       <c r="AF10" s="10"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="131" t="s">
+      <c r="AJ10" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="AK10" s="78">
+      <c r="AK10" s="101">
         <v>9</v>
       </c>
       <c r="AL10" s="3"/>
     </row>
     <row r="11" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
       <c r="K11" s="118"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1802,28 +1802,28 @@
       <c r="O11" s="6"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="156" t="s">
+      <c r="R11" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="91"/>
       <c r="AE11" s="31"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="30"/>
-      <c r="AJ11" s="129"/>
-      <c r="AK11" s="79"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="102"/>
       <c r="AL11" s="3"/>
     </row>
     <row r="12" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,28 +1835,28 @@
       <c r="F12" s="6"/>
       <c r="G12" s="3"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="75"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="96"/>
       <c r="L12" s="8"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="6"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="33"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
       <c r="AE12" s="35"/>
       <c r="AF12" s="10"/>
       <c r="AG12" s="11"/>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="13" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
-      <c r="B13" s="102">
+      <c r="B13" s="109">
         <v>5</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="110" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="8"/>
@@ -1879,98 +1879,98 @@
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="94" t="s">
+      <c r="I13" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="75"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="96"/>
       <c r="L13" s="3"/>
       <c r="M13" s="36"/>
       <c r="N13" s="3"/>
       <c r="O13" s="6"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="37"/>
-      <c r="AB13" s="105" t="s">
+      <c r="AB13" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AC13" s="73"/>
-      <c r="AD13" s="73"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="10"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="8"/>
       <c r="AI13" s="8"/>
-      <c r="AJ13" s="130" t="s">
+      <c r="AJ13" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="AK13" s="74">
+      <c r="AK13" s="95">
         <v>5</v>
       </c>
       <c r="AL13" s="3"/>
     </row>
     <row r="14" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="116"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="111"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
       <c r="G14" s="3"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="79"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="102"/>
       <c r="L14" s="3"/>
       <c r="M14" s="36"/>
       <c r="N14" s="3"/>
       <c r="O14" s="6"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="158" t="s">
+      <c r="R14" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="159"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="37"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="10"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="75"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="96"/>
       <c r="AL14" s="3"/>
     </row>
     <row r="15" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
-      <c r="B15" s="88">
+      <c r="B15" s="107">
         <v>12</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="108" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="117" t="s">
+      <c r="F15" s="131" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="3"/>
@@ -1984,10 +1984,10 @@
       <c r="O15" s="6"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
@@ -1999,23 +1999,23 @@
       <c r="AD15" s="21"/>
       <c r="AE15" s="27"/>
       <c r="AF15" s="25"/>
-      <c r="AG15" s="132" t="s">
+      <c r="AG15" s="150" t="s">
         <v>10</v>
       </c>
       <c r="AH15" s="14"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="86" t="s">
+      <c r="AJ15" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="AK15" s="78">
+      <c r="AK15" s="101">
         <v>12</v>
       </c>
       <c r="AL15" s="3"/>
     </row>
     <row r="16" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="102"/>
       <c r="D16" s="3"/>
       <c r="E16" s="15"/>
       <c r="F16" s="118"/>
@@ -2030,10 +2030,10 @@
       <c r="O16" s="6"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
@@ -2045,11 +2045,11 @@
       <c r="AD16" s="21"/>
       <c r="AE16" s="39"/>
       <c r="AF16" s="39"/>
-      <c r="AG16" s="133"/>
+      <c r="AG16" s="137"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="79"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="102"/>
       <c r="AL16" s="3"/>
     </row>
     <row r="17" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2094,15 +2094,15 @@
     </row>
     <row r="18" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
-      <c r="B18" s="102">
+      <c r="B18" s="109">
         <v>4</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="126" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="128" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3"/>
@@ -2131,26 +2131,26 @@
       <c r="AD18" s="21"/>
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
-      <c r="AG18" s="80" t="s">
+      <c r="AG18" s="133" t="s">
         <v>49</v>
       </c>
       <c r="AH18" s="17"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="82" t="s">
+      <c r="AJ18" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="AK18" s="74">
+      <c r="AK18" s="95">
         <v>4</v>
       </c>
       <c r="AL18" s="3"/>
     </row>
     <row r="19" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="3"/>
       <c r="E19" s="26"/>
-      <c r="F19" s="79"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="6"/>
@@ -2162,12 +2162,12 @@
       <c r="O19" s="6"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="106" t="s">
+      <c r="R19" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="91"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="113"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
@@ -2179,19 +2179,19 @@
       <c r="AD19" s="21"/>
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
-      <c r="AG19" s="81"/>
+      <c r="AG19" s="86"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="83"/>
-      <c r="AK19" s="75"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="96"/>
       <c r="AL19" s="3"/>
     </row>
     <row r="20" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
-      <c r="B20" s="88">
+      <c r="B20" s="107">
         <v>13</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="143" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="3"/>
@@ -2200,82 +2200,82 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="119" t="s">
+      <c r="J20" s="146"/>
+      <c r="K20" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="121"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
       <c r="O20" s="6"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="75"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="96"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
-      <c r="Y20" s="134" t="s">
+      <c r="Y20" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="120"/>
-      <c r="AC20" s="107"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="152"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="128" t="s">
+      <c r="AJ20" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="AK20" s="78">
+      <c r="AK20" s="101">
         <v>13</v>
       </c>
       <c r="AL20" s="3"/>
     </row>
     <row r="21" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="124"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="118"/>
       <c r="O21" s="6"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="75"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="96"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="75"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="91"/>
+      <c r="AB21" s="91"/>
+      <c r="AC21" s="96"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="30"/>
       <c r="AI21" s="30"/>
-      <c r="AJ21" s="129"/>
-      <c r="AK21" s="79"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="102"/>
       <c r="AL21" s="3"/>
     </row>
     <row r="22" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2296,10 +2296,10 @@
       <c r="O22" s="43"/>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="79"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="102"/>
       <c r="V22" s="44"/>
       <c r="W22" s="44"/>
       <c r="X22" s="45"/>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="23" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="41"/>
-      <c r="B23" s="102">
+      <c r="B23" s="109">
         <v>6</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="110" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="50"/>
@@ -2332,13 +2332,13 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="51"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="94" t="s">
+      <c r="J23" s="147"/>
+      <c r="K23" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="75"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="96"/>
       <c r="O23" s="51"/>
       <c r="P23" s="52"/>
       <c r="Q23" s="41"/>
@@ -2349,42 +2349,42 @@
       <c r="V23" s="44"/>
       <c r="W23" s="44"/>
       <c r="X23" s="53"/>
-      <c r="Y23" s="105" t="s">
+      <c r="Y23" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="108"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="153"/>
       <c r="AD23" s="54"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="50"/>
       <c r="AI23" s="41"/>
-      <c r="AJ23" s="126" t="s">
+      <c r="AJ23" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AK23" s="74">
+      <c r="AK23" s="95">
         <v>6</v>
       </c>
       <c r="AL23" s="41"/>
     </row>
     <row r="24" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="41"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="116"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="41"/>
       <c r="E24" s="55"/>
       <c r="F24" s="6"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="51"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="79"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="102"/>
       <c r="O24" s="51"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="41"/>
@@ -2395,32 +2395,32 @@
       <c r="V24" s="44"/>
       <c r="W24" s="44"/>
       <c r="X24" s="53"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="79"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="102"/>
       <c r="AD24" s="54"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="41"/>
       <c r="AI24" s="56"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="75"/>
+      <c r="AJ24" s="94"/>
+      <c r="AK24" s="96"/>
       <c r="AL24" s="41"/>
     </row>
     <row r="25" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="41"/>
-      <c r="B25" s="88">
+      <c r="B25" s="107">
         <v>11</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="108" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="122" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="41"/>
@@ -2449,26 +2449,26 @@
       <c r="AD25" s="54"/>
       <c r="AE25" s="44"/>
       <c r="AF25" s="44"/>
-      <c r="AG25" s="76" t="s">
+      <c r="AG25" s="73" t="s">
         <v>7</v>
       </c>
       <c r="AH25" s="58"/>
       <c r="AI25" s="41"/>
-      <c r="AJ25" s="96" t="s">
+      <c r="AJ25" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="AK25" s="78">
+      <c r="AK25" s="101">
         <v>11</v>
       </c>
       <c r="AL25" s="41"/>
     </row>
     <row r="26" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="41"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="79"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="41"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="75"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="6"/>
@@ -2495,11 +2495,11 @@
       <c r="AD26" s="21"/>
       <c r="AE26" s="44"/>
       <c r="AF26" s="44"/>
-      <c r="AG26" s="77"/>
+      <c r="AG26" s="74"/>
       <c r="AH26" s="59"/>
       <c r="AI26" s="41"/>
-      <c r="AJ26" s="81"/>
-      <c r="AK26" s="79"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="102"/>
       <c r="AL26" s="41"/>
     </row>
     <row r="27" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2544,15 +2544,15 @@
     </row>
     <row r="28" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="41"/>
-      <c r="B28" s="102">
+      <c r="B28" s="109">
         <v>3</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="110" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="155" t="s">
+      <c r="F28" s="123" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="50"/>
@@ -2581,26 +2581,26 @@
       <c r="AD28" s="21"/>
       <c r="AE28" s="25"/>
       <c r="AF28" s="25"/>
-      <c r="AG28" s="135" t="s">
+      <c r="AG28" s="75" t="s">
         <v>3</v>
       </c>
       <c r="AH28" s="59"/>
       <c r="AI28" s="41"/>
-      <c r="AJ28" s="126" t="s">
+      <c r="AJ28" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AK28" s="74">
+      <c r="AK28" s="95">
         <v>3</v>
       </c>
       <c r="AL28" s="41"/>
     </row>
     <row r="29" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="41"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="116"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="41"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="141"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="9"/>
@@ -2627,19 +2627,19 @@
       <c r="AD29" s="21"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="44"/>
-      <c r="AG29" s="129"/>
+      <c r="AG29" s="76"/>
       <c r="AH29" s="63"/>
       <c r="AI29" s="41"/>
-      <c r="AJ29" s="127"/>
-      <c r="AK29" s="75"/>
+      <c r="AJ29" s="94"/>
+      <c r="AK29" s="96"/>
       <c r="AL29" s="41"/>
     </row>
     <row r="30" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="41"/>
-      <c r="B30" s="88">
+      <c r="B30" s="107">
         <v>14</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="108" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="50"/>
@@ -2647,11 +2647,11 @@
       <c r="F30" s="6"/>
       <c r="G30" s="41"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="89" t="s">
+      <c r="I30" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="113"/>
       <c r="L30" s="41"/>
       <c r="M30" s="52"/>
       <c r="N30" s="41"/>
@@ -2668,36 +2668,36 @@
       <c r="Y30" s="57"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="37"/>
-      <c r="AB30" s="134" t="s">
+      <c r="AB30" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
+      <c r="AC30" s="116"/>
+      <c r="AD30" s="116"/>
       <c r="AE30" s="29"/>
       <c r="AF30" s="44"/>
       <c r="AG30" s="12"/>
       <c r="AH30" s="3"/>
       <c r="AI30" s="50"/>
-      <c r="AJ30" s="96" t="s">
+      <c r="AJ30" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="AK30" s="78">
+      <c r="AK30" s="101">
         <v>14</v>
       </c>
       <c r="AL30" s="41"/>
     </row>
     <row r="31" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="41"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="79"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="6"/>
       <c r="G31" s="41"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="75"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="96"/>
       <c r="L31" s="41"/>
       <c r="M31" s="52"/>
       <c r="N31" s="41"/>
@@ -2714,16 +2714,16 @@
       <c r="Y31" s="57"/>
       <c r="Z31" s="57"/>
       <c r="AA31" s="37"/>
-      <c r="AB31" s="133"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="44"/>
       <c r="AG31" s="11"/>
       <c r="AH31" s="30"/>
       <c r="AI31" s="41"/>
-      <c r="AJ31" s="81"/>
-      <c r="AK31" s="79"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="102"/>
       <c r="AL31" s="41"/>
     </row>
     <row r="32" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2735,30 +2735,30 @@
       <c r="F32" s="6"/>
       <c r="G32" s="3"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="75"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="96"/>
       <c r="L32" s="30"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="6"/>
       <c r="P32" s="36"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="149" t="s">
+      <c r="R32" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="148"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="121"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="53"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="65"/>
-      <c r="AB32" s="105"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
       <c r="AE32" s="35"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="11"/>
@@ -2770,10 +2770,10 @@
     </row>
     <row r="33" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
-      <c r="B33" s="102">
+      <c r="B33" s="109">
         <v>7</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="110" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="8"/>
@@ -2781,96 +2781,96 @@
       <c r="F33" s="6"/>
       <c r="G33" s="3"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="142" t="s">
+      <c r="I33" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="104"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="6"/>
       <c r="P33" s="36"/>
       <c r="Q33" s="66"/>
-      <c r="R33" s="150"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="144"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="104"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="53"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
-      <c r="AB33" s="105" t="s">
+      <c r="AB33" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
       <c r="AE33" s="31"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="11"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="8"/>
-      <c r="AJ33" s="126" t="s">
+      <c r="AJ33" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="AK33" s="74">
+      <c r="AK33" s="95">
         <v>7</v>
       </c>
       <c r="AL33" s="3"/>
     </row>
     <row r="34" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="116"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="9"/>
       <c r="G34" s="3"/>
       <c r="H34" s="26"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="141"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="6"/>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="75"/>
+      <c r="R34" s="139"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="96"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="53"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
-      <c r="AB34" s="81"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
+      <c r="AB34" s="86"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
       <c r="AE34" s="38"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="12"/>
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
-      <c r="AJ34" s="127"/>
-      <c r="AK34" s="75"/>
+      <c r="AJ34" s="94"/>
+      <c r="AK34" s="96"/>
       <c r="AL34" s="3"/>
     </row>
     <row r="35" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
-      <c r="B35" s="88">
+      <c r="B35" s="107">
         <v>10</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="99" t="s">
+      <c r="F35" s="122" t="s">
         <v>34</v>
       </c>
       <c r="G35" s="3"/>
@@ -2884,12 +2884,12 @@
       <c r="O35" s="6"/>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
-      <c r="R35" s="110" t="s">
+      <c r="R35" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="75"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="96"/>
       <c r="V35" s="25"/>
       <c r="W35" s="10"/>
       <c r="X35" s="53"/>
@@ -2901,26 +2901,26 @@
       <c r="AD35" s="21"/>
       <c r="AE35" s="27"/>
       <c r="AF35" s="10"/>
-      <c r="AG35" s="154" t="s">
+      <c r="AG35" s="132" t="s">
         <v>51</v>
       </c>
       <c r="AH35" s="14"/>
       <c r="AI35" s="3"/>
-      <c r="AJ35" s="96" t="s">
+      <c r="AJ35" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AK35" s="78">
+      <c r="AK35" s="101">
         <v>10</v>
       </c>
       <c r="AL35" s="3"/>
     </row>
     <row r="36" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="79"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="3"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="75"/>
+      <c r="F36" s="96"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="6"/>
@@ -2932,10 +2932,10 @@
       <c r="O36" s="6"/>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="95"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="79"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="102"/>
       <c r="V36" s="67"/>
       <c r="W36" s="10"/>
       <c r="X36" s="53"/>
@@ -2947,11 +2947,11 @@
       <c r="AD36" s="21"/>
       <c r="AE36" s="39"/>
       <c r="AF36" s="39"/>
-      <c r="AG36" s="150"/>
+      <c r="AG36" s="83"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="3"/>
-      <c r="AJ36" s="81"/>
-      <c r="AK36" s="79"/>
+      <c r="AJ36" s="86"/>
+      <c r="AK36" s="102"/>
       <c r="AL36" s="3"/>
     </row>
     <row r="37" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -2972,10 +2972,10 @@
       <c r="O37" s="6"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
       <c r="V37" s="67"/>
       <c r="W37" s="10"/>
       <c r="X37" s="53"/>
@@ -2996,15 +2996,15 @@
     </row>
     <row r="38" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
-      <c r="B38" s="102">
+      <c r="B38" s="109">
         <v>2</v>
       </c>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="110" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="155" t="s">
+      <c r="F38" s="123" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="3"/>
@@ -3018,10 +3018,10 @@
       <c r="O38" s="6"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
-      <c r="R38" s="73"/>
-      <c r="S38" s="73"/>
-      <c r="T38" s="73"/>
-      <c r="U38" s="73"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
       <c r="V38" s="67"/>
       <c r="W38" s="10"/>
       <c r="X38" s="53"/>
@@ -3033,26 +3033,26 @@
       <c r="AD38" s="21"/>
       <c r="AE38" s="10"/>
       <c r="AF38" s="10"/>
-      <c r="AG38" s="80" t="s">
+      <c r="AG38" s="133" t="s">
         <v>53</v>
       </c>
       <c r="AH38" s="17"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="82" t="s">
+      <c r="AJ38" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="AK38" s="74">
+      <c r="AK38" s="95">
         <v>2</v>
       </c>
       <c r="AL38" s="3"/>
     </row>
     <row r="39" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="111"/>
       <c r="D39" s="3"/>
       <c r="E39" s="26"/>
-      <c r="F39" s="141"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="6"/>
@@ -3064,10 +3064,10 @@
       <c r="O39" s="6"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
-      <c r="R39" s="112"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
+      <c r="R39" s="142"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
       <c r="V39" s="67"/>
       <c r="W39" s="10"/>
       <c r="X39" s="53"/>
@@ -3079,19 +3079,19 @@
       <c r="AD39" s="21"/>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
-      <c r="AG39" s="81"/>
+      <c r="AG39" s="86"/>
       <c r="AH39" s="28"/>
       <c r="AI39" s="3"/>
-      <c r="AJ39" s="83"/>
-      <c r="AK39" s="75"/>
+      <c r="AJ39" s="99"/>
+      <c r="AK39" s="96"/>
       <c r="AL39" s="3"/>
     </row>
     <row r="40" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
-      <c r="B40" s="88">
+      <c r="B40" s="107">
         <v>15</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="108" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="3"/>
@@ -3108,10 +3108,10 @@
       <c r="O40" s="6"/>
       <c r="P40" s="36"/>
       <c r="Q40" s="36"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
       <c r="V40" s="67"/>
       <c r="W40" s="10"/>
       <c r="X40" s="53"/>
@@ -3126,18 +3126,18 @@
       <c r="AG40" s="12"/>
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
-      <c r="AJ40" s="128" t="s">
+      <c r="AJ40" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="AK40" s="78">
+      <c r="AK40" s="101">
         <v>15</v>
       </c>
       <c r="AL40" s="3"/>
     </row>
     <row r="41" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="79"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="6"/>
@@ -3170,8 +3170,8 @@
       <c r="AG41" s="11"/>
       <c r="AH41" s="30"/>
       <c r="AI41" s="30"/>
-      <c r="AJ41" s="129"/>
-      <c r="AK41" s="79"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="102"/>
       <c r="AL41" s="3"/>
     </row>
     <row r="42" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3189,20 +3189,20 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="119" t="s">
+      <c r="O42" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="121"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="117"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
-      <c r="V42" s="76" t="s">
+      <c r="V42" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="89"/>
       <c r="Y42" s="29"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
@@ -3233,16 +3233,16 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="15"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
+      <c r="O43" s="91"/>
+      <c r="P43" s="91"/>
       <c r="Q43" s="118"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
-      <c r="V43" s="77"/>
-      <c r="W43" s="73"/>
-      <c r="X43" s="73"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
       <c r="Y43" s="31"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
@@ -3313,20 +3313,20 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="15"/>
-      <c r="O45" s="94" t="s">
+      <c r="O45" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="75"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="96"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
-      <c r="V45" s="151" t="s">
+      <c r="V45" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="143"/>
-      <c r="X45" s="143"/>
+      <c r="W45" s="84"/>
+      <c r="X45" s="84"/>
       <c r="Y45" s="31"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
@@ -3357,16 +3357,16 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="26"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="79"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="102"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
-      <c r="V46" s="152"/>
-      <c r="W46" s="145"/>
-      <c r="X46" s="145"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="105"/>
       <c r="Y46" s="38"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="47" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
-      <c r="B47" s="102">
+      <c r="B47" s="109">
         <v>1</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="110" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="8"/>
@@ -3422,18 +3422,18 @@
       <c r="AG47" s="11"/>
       <c r="AH47" s="8"/>
       <c r="AI47" s="8"/>
-      <c r="AJ47" s="130" t="s">
+      <c r="AJ47" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="AK47" s="74">
+      <c r="AK47" s="95">
         <v>1</v>
       </c>
       <c r="AL47" s="3"/>
     </row>
     <row r="48" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="116"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="111"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="9"/>
@@ -3466,21 +3466,21 @@
       <c r="AG48" s="12"/>
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
-      <c r="AJ48" s="127"/>
-      <c r="AK48" s="75"/>
+      <c r="AJ48" s="94"/>
+      <c r="AK48" s="96"/>
       <c r="AL48" s="3"/>
     </row>
     <row r="49" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
-      <c r="B49" s="88">
+      <c r="B49" s="107">
         <v>16</v>
       </c>
-      <c r="C49" s="101" t="s">
+      <c r="C49" s="144" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="131" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="3"/>
@@ -3509,23 +3509,23 @@
       <c r="AD49" s="21"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
-      <c r="AG49" s="154" t="s">
+      <c r="AG49" s="132" t="s">
         <v>4</v>
       </c>
       <c r="AH49" s="14"/>
       <c r="AI49" s="3"/>
-      <c r="AJ49" s="113" t="s">
+      <c r="AJ49" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="AK49" s="78">
+      <c r="AK49" s="101">
         <v>16</v>
       </c>
       <c r="AL49" s="3"/>
     </row>
     <row r="50" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="73"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="3"/>
       <c r="E50" s="15"/>
       <c r="F50" s="118"/>
@@ -3555,11 +3555,11 @@
       <c r="AD50" s="21"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
-      <c r="AG50" s="150"/>
+      <c r="AG50" s="83"/>
       <c r="AH50" s="17"/>
       <c r="AI50" s="3"/>
-      <c r="AJ50" s="81"/>
-      <c r="AK50" s="79"/>
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="102"/>
       <c r="AL50" s="3"/>
     </row>
     <row r="51" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3604,15 +3604,15 @@
     </row>
     <row r="52" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
-      <c r="B52" s="102">
+      <c r="B52" s="109">
         <v>8</v>
       </c>
-      <c r="C52" s="103" t="s">
+      <c r="C52" s="126" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="100" t="s">
+      <c r="F52" s="128" t="s">
         <v>38</v>
       </c>
       <c r="G52" s="8"/>
@@ -3641,26 +3641,26 @@
       <c r="AD52" s="21"/>
       <c r="AE52" s="25"/>
       <c r="AF52" s="25"/>
-      <c r="AG52" s="80" t="s">
+      <c r="AG52" s="133" t="s">
         <v>9</v>
       </c>
       <c r="AH52" s="17"/>
       <c r="AI52" s="3"/>
-      <c r="AJ52" s="126" t="s">
+      <c r="AJ52" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AK52" s="74">
+      <c r="AK52" s="95">
         <v>8</v>
       </c>
       <c r="AL52" s="3"/>
     </row>
     <row r="53" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="104"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="127"/>
       <c r="D53" s="3"/>
       <c r="E53" s="26"/>
-      <c r="F53" s="79"/>
+      <c r="F53" s="102"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="9"/>
@@ -3687,19 +3687,19 @@
       <c r="AD53" s="21"/>
       <c r="AE53" s="27"/>
       <c r="AF53" s="10"/>
-      <c r="AG53" s="81"/>
+      <c r="AG53" s="86"/>
       <c r="AH53" s="28"/>
       <c r="AI53" s="3"/>
-      <c r="AJ53" s="127"/>
-      <c r="AK53" s="75"/>
+      <c r="AJ53" s="94"/>
+      <c r="AK53" s="96"/>
       <c r="AL53" s="3"/>
     </row>
     <row r="54" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
-      <c r="B54" s="88">
+      <c r="B54" s="107">
         <v>9</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="145" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="3"/>
@@ -3707,11 +3707,11 @@
       <c r="F54" s="9"/>
       <c r="G54" s="3"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="119" t="s">
+      <c r="I54" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J54" s="120"/>
-      <c r="K54" s="121"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="117"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -3728,35 +3728,35 @@
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
-      <c r="AB54" s="153" t="s">
+      <c r="AB54" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="AC54" s="147"/>
-      <c r="AD54" s="147"/>
+      <c r="AC54" s="82"/>
+      <c r="AD54" s="82"/>
       <c r="AE54" s="29"/>
       <c r="AF54" s="10"/>
       <c r="AG54" s="12"/>
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
-      <c r="AJ54" s="96" t="s">
+      <c r="AJ54" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="AK54" s="78">
+      <c r="AK54" s="101">
         <v>9</v>
       </c>
       <c r="AL54" s="3"/>
     </row>
     <row r="55" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="141"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="106"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
       <c r="F55" s="6"/>
       <c r="G55" s="3"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
       <c r="K55" s="118"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3774,16 +3774,16 @@
       <c r="Y55" s="20"/>
       <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
-      <c r="AB55" s="150"/>
-      <c r="AC55" s="143"/>
-      <c r="AD55" s="143"/>
+      <c r="AB55" s="83"/>
+      <c r="AC55" s="84"/>
+      <c r="AD55" s="84"/>
       <c r="AE55" s="31"/>
       <c r="AF55" s="10"/>
       <c r="AG55" s="11"/>
       <c r="AH55" s="30"/>
       <c r="AI55" s="30"/>
-      <c r="AJ55" s="81"/>
-      <c r="AK55" s="79"/>
+      <c r="AJ55" s="86"/>
+      <c r="AK55" s="102"/>
       <c r="AL55" s="3"/>
     </row>
     <row r="56" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -3795,9 +3795,9 @@
       <c r="F56" s="6"/>
       <c r="G56" s="3"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="75"/>
+      <c r="I56" s="114"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="96"/>
       <c r="L56" s="8"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -3814,9 +3814,9 @@
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="33"/>
-      <c r="AB56" s="105"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
+      <c r="AB56" s="85"/>
+      <c r="AC56" s="78"/>
+      <c r="AD56" s="78"/>
       <c r="AE56" s="35"/>
       <c r="AF56" s="10"/>
       <c r="AG56" s="11"/>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="57" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
-      <c r="B57" s="102">
+      <c r="B57" s="109">
         <v>5</v>
       </c>
-      <c r="C57" s="115" t="s">
+      <c r="C57" s="110" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="8"/>
@@ -3839,11 +3839,11 @@
       <c r="F57" s="6"/>
       <c r="G57" s="3"/>
       <c r="H57" s="15"/>
-      <c r="I57" s="94" t="s">
+      <c r="I57" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="J57" s="73"/>
-      <c r="K57" s="75"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="96"/>
       <c r="L57" s="3"/>
       <c r="M57" s="36"/>
       <c r="N57" s="3"/>
@@ -3860,36 +3860,36 @@
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="37"/>
-      <c r="AB57" s="105" t="s">
+      <c r="AB57" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="AC57" s="73"/>
-      <c r="AD57" s="73"/>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="78"/>
       <c r="AE57" s="31"/>
       <c r="AF57" s="10"/>
       <c r="AG57" s="11"/>
       <c r="AH57" s="8"/>
       <c r="AI57" s="8"/>
-      <c r="AJ57" s="82" t="s">
+      <c r="AJ57" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="AK57" s="74">
+      <c r="AK57" s="95">
         <v>5</v>
       </c>
       <c r="AL57" s="3"/>
     </row>
     <row r="58" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="116"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="111"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="9"/>
       <c r="G58" s="3"/>
       <c r="H58" s="26"/>
-      <c r="I58" s="95"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="79"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="102"/>
       <c r="L58" s="3"/>
       <c r="M58" s="36"/>
       <c r="N58" s="3"/>
@@ -3906,29 +3906,29 @@
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="37"/>
-      <c r="AB58" s="81"/>
-      <c r="AC58" s="95"/>
-      <c r="AD58" s="95"/>
+      <c r="AB58" s="86"/>
+      <c r="AC58" s="87"/>
+      <c r="AD58" s="87"/>
       <c r="AE58" s="38"/>
       <c r="AF58" s="10"/>
       <c r="AG58" s="12"/>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
-      <c r="AJ58" s="83"/>
-      <c r="AK58" s="75"/>
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="96"/>
       <c r="AL58" s="3"/>
     </row>
     <row r="59" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
-      <c r="B59" s="88">
+      <c r="B59" s="107">
         <v>12</v>
       </c>
-      <c r="C59" s="85" t="s">
+      <c r="C59" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="99" t="s">
+      <c r="F59" s="122" t="s">
         <v>39</v>
       </c>
       <c r="G59" s="3"/>
@@ -3957,26 +3957,26 @@
       <c r="AD59" s="21"/>
       <c r="AE59" s="27"/>
       <c r="AF59" s="10"/>
-      <c r="AG59" s="76" t="s">
+      <c r="AG59" s="73" t="s">
         <v>56</v>
       </c>
       <c r="AH59" s="14"/>
       <c r="AI59" s="3"/>
-      <c r="AJ59" s="128" t="s">
+      <c r="AJ59" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="AK59" s="78">
+      <c r="AK59" s="101">
         <v>12</v>
       </c>
       <c r="AL59" s="3"/>
     </row>
     <row r="60" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="79"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="102"/>
       <c r="D60" s="3"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="75"/>
+      <c r="F60" s="96"/>
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="6"/>
@@ -4003,11 +4003,11 @@
       <c r="AD60" s="21"/>
       <c r="AE60" s="39"/>
       <c r="AF60" s="39"/>
-      <c r="AG60" s="77"/>
+      <c r="AG60" s="74"/>
       <c r="AH60" s="17"/>
       <c r="AI60" s="3"/>
-      <c r="AJ60" s="129"/>
-      <c r="AK60" s="79"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="102"/>
       <c r="AL60" s="3"/>
     </row>
     <row r="61" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -4052,15 +4052,15 @@
     </row>
     <row r="62" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
-      <c r="B62" s="102">
+      <c r="B62" s="109">
         <v>4</v>
       </c>
-      <c r="C62" s="115" t="s">
+      <c r="C62" s="110" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="125" t="s">
+      <c r="F62" s="129" t="s">
         <v>41</v>
       </c>
       <c r="G62" s="3"/>
@@ -4089,26 +4089,26 @@
       <c r="AD62" s="21"/>
       <c r="AE62" s="10"/>
       <c r="AF62" s="10"/>
-      <c r="AG62" s="151" t="s">
+      <c r="AG62" s="79" t="s">
         <v>57</v>
       </c>
       <c r="AH62" s="17"/>
       <c r="AI62" s="3"/>
-      <c r="AJ62" s="126" t="s">
+      <c r="AJ62" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="AK62" s="74">
+      <c r="AK62" s="95">
         <v>4</v>
       </c>
       <c r="AL62" s="3"/>
     </row>
     <row r="63" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="116"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="111"/>
       <c r="D63" s="3"/>
       <c r="E63" s="26"/>
-      <c r="F63" s="124"/>
+      <c r="F63" s="130"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="6"/>
@@ -4135,19 +4135,19 @@
       <c r="AD63" s="21"/>
       <c r="AE63" s="10"/>
       <c r="AF63" s="10"/>
-      <c r="AG63" s="152"/>
+      <c r="AG63" s="80"/>
       <c r="AH63" s="28"/>
       <c r="AI63" s="3"/>
-      <c r="AJ63" s="127"/>
-      <c r="AK63" s="75"/>
+      <c r="AJ63" s="94"/>
+      <c r="AK63" s="96"/>
       <c r="AL63" s="3"/>
     </row>
     <row r="64" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
-      <c r="B64" s="88">
+      <c r="B64" s="107">
         <v>13</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D64" s="3"/>
@@ -4157,12 +4157,12 @@
       <c r="H64" s="3"/>
       <c r="I64" s="6"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="146" t="s">
+      <c r="K64" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="148"/>
+      <c r="L64" s="82"/>
+      <c r="M64" s="82"/>
+      <c r="N64" s="121"/>
       <c r="O64" s="6"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="3"/>
@@ -4173,12 +4173,12 @@
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
       <c r="X64" s="53"/>
-      <c r="Y64" s="153" t="s">
+      <c r="Y64" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="Z64" s="147"/>
-      <c r="AA64" s="147"/>
-      <c r="AB64" s="147"/>
+      <c r="Z64" s="82"/>
+      <c r="AA64" s="82"/>
+      <c r="AB64" s="82"/>
       <c r="AC64" s="29"/>
       <c r="AD64" s="21"/>
       <c r="AE64" s="10"/>
@@ -4186,18 +4186,18 @@
       <c r="AG64" s="12"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
-      <c r="AJ64" s="96" t="s">
+      <c r="AJ64" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="AK64" s="78">
+      <c r="AK64" s="101">
         <v>13</v>
       </c>
       <c r="AL64" s="3"/>
     </row>
     <row r="65" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="79"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="102"/>
       <c r="D65" s="30"/>
       <c r="E65" s="30"/>
       <c r="F65" s="6"/>
@@ -4205,10 +4205,10 @@
       <c r="H65" s="3"/>
       <c r="I65" s="6"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="143"/>
-      <c r="L65" s="143"/>
-      <c r="M65" s="143"/>
-      <c r="N65" s="144"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="104"/>
       <c r="O65" s="6"/>
       <c r="P65" s="36"/>
       <c r="Q65" s="3"/>
@@ -4219,10 +4219,10 @@
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
       <c r="X65" s="53"/>
-      <c r="Y65" s="150"/>
-      <c r="Z65" s="143"/>
-      <c r="AA65" s="143"/>
-      <c r="AB65" s="143"/>
+      <c r="Y65" s="83"/>
+      <c r="Z65" s="84"/>
+      <c r="AA65" s="84"/>
+      <c r="AB65" s="84"/>
       <c r="AC65" s="31"/>
       <c r="AD65" s="21"/>
       <c r="AE65" s="10"/>
@@ -4230,8 +4230,8 @@
       <c r="AG65" s="11"/>
       <c r="AH65" s="30"/>
       <c r="AI65" s="30"/>
-      <c r="AJ65" s="81"/>
-      <c r="AK65" s="79"/>
+      <c r="AJ65" s="86"/>
+      <c r="AK65" s="102"/>
       <c r="AL65" s="3"/>
     </row>
     <row r="66" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -4276,10 +4276,10 @@
     </row>
     <row r="67" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="41"/>
-      <c r="B67" s="102">
+      <c r="B67" s="109">
         <v>6</v>
       </c>
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="126" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="50"/>
@@ -4289,12 +4289,12 @@
       <c r="H67" s="41"/>
       <c r="I67" s="51"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="94" t="s">
+      <c r="K67" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="75"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="96"/>
       <c r="O67" s="6"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
@@ -4305,12 +4305,12 @@
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
       <c r="X67" s="10"/>
-      <c r="Y67" s="105" t="s">
+      <c r="Y67" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="Z67" s="73"/>
-      <c r="AA67" s="73"/>
-      <c r="AB67" s="73"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
       <c r="AC67" s="31"/>
       <c r="AD67" s="54"/>
       <c r="AE67" s="44"/>
@@ -4318,18 +4318,18 @@
       <c r="AG67" s="11"/>
       <c r="AH67" s="50"/>
       <c r="AI67" s="41"/>
-      <c r="AJ67" s="82" t="s">
+      <c r="AJ67" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="AK67" s="74">
+      <c r="AK67" s="95">
         <v>6</v>
       </c>
       <c r="AL67" s="3"/>
     </row>
     <row r="68" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="41"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="104"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="127"/>
       <c r="D68" s="41"/>
       <c r="E68" s="55"/>
       <c r="F68" s="6"/>
@@ -4337,10 +4337,10 @@
       <c r="H68" s="41"/>
       <c r="I68" s="51"/>
       <c r="J68" s="26"/>
-      <c r="K68" s="95"/>
-      <c r="L68" s="95"/>
-      <c r="M68" s="95"/>
-      <c r="N68" s="79"/>
+      <c r="K68" s="87"/>
+      <c r="L68" s="87"/>
+      <c r="M68" s="87"/>
+      <c r="N68" s="102"/>
       <c r="O68" s="6"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
@@ -4351,10 +4351,10 @@
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
       <c r="X68" s="10"/>
-      <c r="Y68" s="81"/>
-      <c r="Z68" s="95"/>
-      <c r="AA68" s="95"/>
-      <c r="AB68" s="95"/>
+      <c r="Y68" s="86"/>
+      <c r="Z68" s="87"/>
+      <c r="AA68" s="87"/>
+      <c r="AB68" s="87"/>
       <c r="AC68" s="38"/>
       <c r="AD68" s="54"/>
       <c r="AE68" s="44"/>
@@ -4362,21 +4362,21 @@
       <c r="AG68" s="12"/>
       <c r="AH68" s="41"/>
       <c r="AI68" s="56"/>
-      <c r="AJ68" s="83"/>
-      <c r="AK68" s="75"/>
+      <c r="AJ68" s="99"/>
+      <c r="AK68" s="96"/>
       <c r="AL68" s="3"/>
     </row>
     <row r="69" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="41"/>
-      <c r="B69" s="88">
+      <c r="B69" s="107">
         <v>11</v>
       </c>
-      <c r="C69" s="122" t="s">
+      <c r="C69" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="117" t="s">
+      <c r="F69" s="131" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="41"/>
@@ -4405,23 +4405,23 @@
       <c r="AD69" s="54"/>
       <c r="AE69" s="44"/>
       <c r="AF69" s="44"/>
-      <c r="AG69" s="76" t="s">
+      <c r="AG69" s="73" t="s">
         <v>60</v>
       </c>
       <c r="AH69" s="58"/>
       <c r="AI69" s="41"/>
-      <c r="AJ69" s="128" t="s">
+      <c r="AJ69" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="AK69" s="78">
+      <c r="AK69" s="101">
         <v>11</v>
       </c>
       <c r="AL69" s="3"/>
     </row>
     <row r="70" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="41"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="122"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="41"/>
       <c r="E70" s="15"/>
       <c r="F70" s="118"/>
@@ -4451,11 +4451,11 @@
       <c r="AD70" s="21"/>
       <c r="AE70" s="44"/>
       <c r="AF70" s="44"/>
-      <c r="AG70" s="77"/>
+      <c r="AG70" s="74"/>
       <c r="AH70" s="59"/>
       <c r="AI70" s="41"/>
-      <c r="AJ70" s="129"/>
-      <c r="AK70" s="79"/>
+      <c r="AJ70" s="76"/>
+      <c r="AK70" s="102"/>
       <c r="AL70" s="3"/>
     </row>
     <row r="71" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -4500,15 +4500,15 @@
     </row>
     <row r="72" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="41"/>
-      <c r="B72" s="102">
+      <c r="B72" s="109">
         <v>3</v>
       </c>
-      <c r="C72" s="103" t="s">
+      <c r="C72" s="126" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="41"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="100" t="s">
+      <c r="F72" s="128" t="s">
         <v>44</v>
       </c>
       <c r="G72" s="50"/>
@@ -4537,26 +4537,26 @@
       <c r="AD72" s="21"/>
       <c r="AE72" s="25"/>
       <c r="AF72" s="25"/>
-      <c r="AG72" s="151" t="s">
+      <c r="AG72" s="79" t="s">
         <v>61</v>
       </c>
       <c r="AH72" s="59"/>
       <c r="AI72" s="41"/>
-      <c r="AJ72" s="126" t="s">
+      <c r="AJ72" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="AK72" s="74">
+      <c r="AK72" s="95">
         <v>3</v>
       </c>
       <c r="AL72" s="3"/>
     </row>
     <row r="73" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="41"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="104"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="127"/>
       <c r="D73" s="41"/>
       <c r="E73" s="26"/>
-      <c r="F73" s="79"/>
+      <c r="F73" s="102"/>
       <c r="G73" s="41"/>
       <c r="H73" s="41"/>
       <c r="I73" s="9"/>
@@ -4583,19 +4583,19 @@
       <c r="AD73" s="21"/>
       <c r="AE73" s="27"/>
       <c r="AF73" s="44"/>
-      <c r="AG73" s="152"/>
+      <c r="AG73" s="80"/>
       <c r="AH73" s="63"/>
       <c r="AI73" s="41"/>
-      <c r="AJ73" s="127"/>
-      <c r="AK73" s="75"/>
+      <c r="AJ73" s="94"/>
+      <c r="AK73" s="96"/>
       <c r="AL73" s="3"/>
     </row>
     <row r="74" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="41"/>
-      <c r="B74" s="88">
+      <c r="B74" s="107">
         <v>14</v>
       </c>
-      <c r="C74" s="123" t="s">
+      <c r="C74" s="143" t="s">
         <v>44</v>
       </c>
       <c r="D74" s="50"/>
@@ -4603,11 +4603,11 @@
       <c r="F74" s="6"/>
       <c r="G74" s="41"/>
       <c r="H74" s="13"/>
-      <c r="I74" s="89" t="s">
+      <c r="I74" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="90"/>
-      <c r="K74" s="91"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="113"/>
       <c r="L74" s="41"/>
       <c r="M74" s="52"/>
       <c r="N74" s="41"/>
@@ -4624,36 +4624,36 @@
       <c r="Y74" s="57"/>
       <c r="Z74" s="57"/>
       <c r="AA74" s="37"/>
-      <c r="AB74" s="92" t="s">
+      <c r="AB74" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="AC74" s="90"/>
-      <c r="AD74" s="90"/>
+      <c r="AC74" s="89"/>
+      <c r="AD74" s="89"/>
       <c r="AE74" s="29"/>
       <c r="AF74" s="44"/>
       <c r="AG74" s="12"/>
       <c r="AH74" s="50"/>
       <c r="AI74" s="50"/>
-      <c r="AJ74" s="96" t="s">
+      <c r="AJ74" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AK74" s="78">
+      <c r="AK74" s="101">
         <v>14</v>
       </c>
       <c r="AL74" s="3"/>
     </row>
     <row r="75" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="41"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="124"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="130"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="6"/>
       <c r="G75" s="41"/>
       <c r="H75" s="15"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="75"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="96"/>
       <c r="L75" s="41"/>
       <c r="M75" s="52"/>
       <c r="N75" s="41"/>
@@ -4670,16 +4670,16 @@
       <c r="Y75" s="57"/>
       <c r="Z75" s="57"/>
       <c r="AA75" s="37"/>
-      <c r="AB75" s="77"/>
-      <c r="AC75" s="73"/>
-      <c r="AD75" s="73"/>
+      <c r="AB75" s="74"/>
+      <c r="AC75" s="78"/>
+      <c r="AD75" s="78"/>
       <c r="AE75" s="31"/>
       <c r="AF75" s="44"/>
       <c r="AG75" s="11"/>
       <c r="AH75" s="41"/>
       <c r="AI75" s="41"/>
-      <c r="AJ75" s="81"/>
-      <c r="AK75" s="79"/>
+      <c r="AJ75" s="86"/>
+      <c r="AK75" s="102"/>
       <c r="AL75" s="3"/>
     </row>
     <row r="76" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -4691,9 +4691,9 @@
       <c r="F76" s="6"/>
       <c r="G76" s="3"/>
       <c r="H76" s="18"/>
-      <c r="I76" s="93"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="75"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="96"/>
       <c r="L76" s="30"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -4724,10 +4724,10 @@
     </row>
     <row r="77" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3"/>
-      <c r="B77" s="102">
+      <c r="B77" s="109">
         <v>7</v>
       </c>
-      <c r="C77" s="103" t="s">
+      <c r="C77" s="126" t="s">
         <v>1</v>
       </c>
       <c r="D77" s="8"/>
@@ -4735,11 +4735,11 @@
       <c r="F77" s="6"/>
       <c r="G77" s="3"/>
       <c r="H77" s="15"/>
-      <c r="I77" s="142" t="s">
+      <c r="I77" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="J77" s="143"/>
-      <c r="K77" s="144"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="104"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -4756,36 +4756,36 @@
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
-      <c r="AB77" s="136" t="s">
+      <c r="AB77" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AC77" s="122"/>
-      <c r="AD77" s="122"/>
+      <c r="AC77" s="91"/>
+      <c r="AD77" s="91"/>
       <c r="AE77" s="31"/>
       <c r="AF77" s="10"/>
       <c r="AG77" s="11"/>
       <c r="AH77" s="8"/>
       <c r="AI77" s="8"/>
-      <c r="AJ77" s="82" t="s">
+      <c r="AJ77" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="AK77" s="74">
+      <c r="AK77" s="95">
         <v>7</v>
       </c>
       <c r="AL77" s="3"/>
     </row>
     <row r="78" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="104"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="127"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="9"/>
       <c r="G78" s="3"/>
       <c r="H78" s="26"/>
-      <c r="I78" s="145"/>
-      <c r="J78" s="145"/>
-      <c r="K78" s="141"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="106"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -4802,29 +4802,29 @@
       <c r="Y78" s="20"/>
       <c r="Z78" s="20"/>
       <c r="AA78" s="20"/>
-      <c r="AB78" s="129"/>
-      <c r="AC78" s="137"/>
-      <c r="AD78" s="137"/>
+      <c r="AB78" s="76"/>
+      <c r="AC78" s="92"/>
+      <c r="AD78" s="92"/>
       <c r="AE78" s="38"/>
       <c r="AF78" s="10"/>
       <c r="AG78" s="12"/>
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
-      <c r="AJ78" s="83"/>
-      <c r="AK78" s="75"/>
+      <c r="AJ78" s="99"/>
+      <c r="AK78" s="96"/>
       <c r="AL78" s="3"/>
     </row>
     <row r="79" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
-      <c r="B79" s="88">
+      <c r="B79" s="107">
         <v>10</v>
       </c>
-      <c r="C79" s="123" t="s">
+      <c r="C79" s="143" t="s">
         <v>45</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="99" t="s">
+      <c r="F79" s="122" t="s">
         <v>45</v>
       </c>
       <c r="G79" s="3"/>
@@ -4853,26 +4853,26 @@
       <c r="AD79" s="21"/>
       <c r="AE79" s="27"/>
       <c r="AF79" s="10"/>
-      <c r="AG79" s="76" t="s">
+      <c r="AG79" s="73" t="s">
         <v>25</v>
       </c>
       <c r="AH79" s="14"/>
       <c r="AI79" s="3"/>
-      <c r="AJ79" s="128" t="s">
+      <c r="AJ79" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="AK79" s="78">
+      <c r="AK79" s="101">
         <v>10</v>
       </c>
       <c r="AL79" s="3"/>
     </row>
     <row r="80" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="124"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="130"/>
       <c r="D80" s="3"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="75"/>
+      <c r="F80" s="96"/>
       <c r="G80" s="30"/>
       <c r="H80" s="30"/>
       <c r="I80" s="6"/>
@@ -4899,11 +4899,11 @@
       <c r="AD80" s="21"/>
       <c r="AE80" s="39"/>
       <c r="AF80" s="39"/>
-      <c r="AG80" s="77"/>
+      <c r="AG80" s="74"/>
       <c r="AH80" s="17"/>
       <c r="AI80" s="3"/>
-      <c r="AJ80" s="129"/>
-      <c r="AK80" s="79"/>
+      <c r="AJ80" s="76"/>
+      <c r="AK80" s="102"/>
       <c r="AL80" s="3"/>
     </row>
     <row r="81" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -4948,15 +4948,15 @@
     </row>
     <row r="82" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
-      <c r="B82" s="102">
+      <c r="B82" s="109">
         <v>2</v>
       </c>
-      <c r="C82" s="115" t="s">
+      <c r="C82" s="110" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="125" t="s">
+      <c r="F82" s="129" t="s">
         <v>5</v>
       </c>
       <c r="G82" s="3"/>
@@ -4985,26 +4985,26 @@
       <c r="AD82" s="21"/>
       <c r="AE82" s="10"/>
       <c r="AF82" s="10"/>
-      <c r="AG82" s="135" t="s">
+      <c r="AG82" s="75" t="s">
         <v>2</v>
       </c>
       <c r="AH82" s="17"/>
       <c r="AI82" s="3"/>
-      <c r="AJ82" s="126" t="s">
+      <c r="AJ82" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="AK82" s="74">
+      <c r="AK82" s="95">
         <v>2</v>
       </c>
       <c r="AL82" s="3"/>
     </row>
     <row r="83" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="116"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="111"/>
       <c r="D83" s="3"/>
       <c r="E83" s="26"/>
-      <c r="F83" s="124"/>
+      <c r="F83" s="130"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="6"/>
@@ -5012,21 +5012,21 @@
       <c r="K83" s="6"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-      <c r="N83" s="114" t="str">
+      <c r="N83" s="77" t="str">
         <f>HYPERLINK("http://plexkits.com/?utm_source=resource&amp;utm_medium=ncaa-bracket&amp;utm_campaign=march-madness-2016","For more brackets visit PLEXKITS")</f>
         <v>For more brackets visit PLEXKITS</v>
       </c>
-      <c r="O83" s="73"/>
-      <c r="P83" s="73"/>
-      <c r="Q83" s="73"/>
-      <c r="R83" s="73"/>
-      <c r="S83" s="73"/>
-      <c r="T83" s="73"/>
-      <c r="U83" s="73"/>
-      <c r="V83" s="73"/>
-      <c r="W83" s="73"/>
-      <c r="X83" s="73"/>
-      <c r="Y83" s="73"/>
+      <c r="O83" s="78"/>
+      <c r="P83" s="78"/>
+      <c r="Q83" s="78"/>
+      <c r="R83" s="78"/>
+      <c r="S83" s="78"/>
+      <c r="T83" s="78"/>
+      <c r="U83" s="78"/>
+      <c r="V83" s="78"/>
+      <c r="W83" s="78"/>
+      <c r="X83" s="78"/>
+      <c r="Y83" s="78"/>
       <c r="Z83" s="10"/>
       <c r="AA83" s="10"/>
       <c r="AB83" s="11"/>
@@ -5034,19 +5034,19 @@
       <c r="AD83" s="11"/>
       <c r="AE83" s="10"/>
       <c r="AF83" s="10"/>
-      <c r="AG83" s="129"/>
+      <c r="AG83" s="76"/>
       <c r="AH83" s="28"/>
       <c r="AI83" s="3"/>
-      <c r="AJ83" s="127"/>
-      <c r="AK83" s="75"/>
+      <c r="AJ83" s="94"/>
+      <c r="AK83" s="96"/>
       <c r="AL83" s="3"/>
     </row>
     <row r="84" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
-      <c r="B84" s="88">
+      <c r="B84" s="107">
         <v>15</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="108" t="s">
         <v>46</v>
       </c>
       <c r="D84" s="3"/>
@@ -5059,18 +5059,18 @@
       <c r="K84" s="6"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="73"/>
-      <c r="R84" s="73"/>
-      <c r="S84" s="73"/>
-      <c r="T84" s="73"/>
-      <c r="U84" s="73"/>
-      <c r="V84" s="73"/>
-      <c r="W84" s="73"/>
-      <c r="X84" s="73"/>
-      <c r="Y84" s="73"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="78"/>
+      <c r="Q84" s="78"/>
+      <c r="R84" s="78"/>
+      <c r="S84" s="78"/>
+      <c r="T84" s="78"/>
+      <c r="U84" s="78"/>
+      <c r="V84" s="78"/>
+      <c r="W84" s="78"/>
+      <c r="X84" s="78"/>
+      <c r="Y84" s="78"/>
       <c r="Z84" s="10"/>
       <c r="AA84" s="10"/>
       <c r="AB84" s="11"/>
@@ -5081,18 +5081,18 @@
       <c r="AG84" s="12"/>
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
-      <c r="AJ84" s="96" t="s">
+      <c r="AJ84" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="AK84" s="78">
+      <c r="AK84" s="101">
         <v>15</v>
       </c>
       <c r="AL84" s="3"/>
     </row>
     <row r="85" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
-      <c r="B85" s="81"/>
-      <c r="C85" s="79"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="102"/>
       <c r="D85" s="30"/>
       <c r="E85" s="30"/>
       <c r="F85" s="6"/>
@@ -5103,18 +5103,18 @@
       <c r="K85" s="6"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-      <c r="N85" s="73"/>
-      <c r="O85" s="73"/>
-      <c r="P85" s="73"/>
-      <c r="Q85" s="73"/>
-      <c r="R85" s="73"/>
-      <c r="S85" s="73"/>
-      <c r="T85" s="73"/>
-      <c r="U85" s="73"/>
-      <c r="V85" s="73"/>
-      <c r="W85" s="73"/>
-      <c r="X85" s="73"/>
-      <c r="Y85" s="73"/>
+      <c r="N85" s="78"/>
+      <c r="O85" s="78"/>
+      <c r="P85" s="78"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="78"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78"/>
+      <c r="U85" s="78"/>
+      <c r="V85" s="78"/>
+      <c r="W85" s="78"/>
+      <c r="X85" s="78"/>
+      <c r="Y85" s="78"/>
       <c r="Z85" s="10"/>
       <c r="AA85" s="10"/>
       <c r="AB85" s="11"/>
@@ -5125,8 +5125,8 @@
       <c r="AG85" s="11"/>
       <c r="AH85" s="30"/>
       <c r="AI85" s="30"/>
-      <c r="AJ85" s="81"/>
-      <c r="AK85" s="79"/>
+      <c r="AJ85" s="86"/>
+      <c r="AK85" s="102"/>
       <c r="AL85" s="3"/>
     </row>
     <row r="86" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -5211,149 +5211,48 @@
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="AG79:AG80"/>
-    <mergeCell ref="AG82:AG83"/>
-    <mergeCell ref="N83:Y85"/>
-    <mergeCell ref="AG62:AG63"/>
-    <mergeCell ref="Y64:AB65"/>
-    <mergeCell ref="Y67:AB68"/>
-    <mergeCell ref="AG69:AG70"/>
-    <mergeCell ref="AG72:AG73"/>
-    <mergeCell ref="AB74:AD75"/>
-    <mergeCell ref="AB77:AD78"/>
-    <mergeCell ref="AJ62:AJ63"/>
-    <mergeCell ref="AK62:AK63"/>
-    <mergeCell ref="AJ72:AJ73"/>
-    <mergeCell ref="AJ74:AJ75"/>
-    <mergeCell ref="AJ77:AJ78"/>
-    <mergeCell ref="AJ79:AJ80"/>
-    <mergeCell ref="AJ82:AJ83"/>
-    <mergeCell ref="AJ84:AJ85"/>
-    <mergeCell ref="AK74:AK75"/>
-    <mergeCell ref="AK77:AK78"/>
-    <mergeCell ref="AK79:AK80"/>
-    <mergeCell ref="AK82:AK83"/>
-    <mergeCell ref="AK84:AK85"/>
-    <mergeCell ref="AJ64:AJ65"/>
-    <mergeCell ref="AK64:AK65"/>
-    <mergeCell ref="AJ67:AJ68"/>
-    <mergeCell ref="AK67:AK68"/>
-    <mergeCell ref="AJ69:AJ70"/>
-    <mergeCell ref="AK69:AK70"/>
-    <mergeCell ref="AK72:AK73"/>
-    <mergeCell ref="AB54:AD55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="AB57:AD58"/>
-    <mergeCell ref="AJ57:AJ58"/>
-    <mergeCell ref="AK57:AK58"/>
-    <mergeCell ref="AG59:AG60"/>
-    <mergeCell ref="AJ59:AJ60"/>
-    <mergeCell ref="AK59:AK60"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="I74:K75"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K78"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="I54:K55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="I57:K58"/>
-    <mergeCell ref="K64:N65"/>
-    <mergeCell ref="K67:N68"/>
-    <mergeCell ref="I30:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="AG49:AG50"/>
-    <mergeCell ref="AG52:AG53"/>
-    <mergeCell ref="AJ38:AJ39"/>
-    <mergeCell ref="AJ40:AJ41"/>
-    <mergeCell ref="AK40:AK41"/>
-    <mergeCell ref="AJ47:AJ48"/>
-    <mergeCell ref="AK47:AK48"/>
-    <mergeCell ref="AJ49:AJ50"/>
-    <mergeCell ref="AK49:AK50"/>
-    <mergeCell ref="AJ52:AJ53"/>
-    <mergeCell ref="AK52:AK53"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="V42:X43"/>
-    <mergeCell ref="O45:Q46"/>
-    <mergeCell ref="V45:X46"/>
-    <mergeCell ref="AG28:AG29"/>
-    <mergeCell ref="AB30:AD31"/>
-    <mergeCell ref="AJ30:AJ31"/>
-    <mergeCell ref="AK30:AK31"/>
-    <mergeCell ref="R32:U33"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AB33:AD34"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AJ35:AJ36"/>
-    <mergeCell ref="AK35:AK36"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="AG25:AG26"/>
-    <mergeCell ref="AJ25:AJ26"/>
-    <mergeCell ref="AK25:AK26"/>
-    <mergeCell ref="AJ28:AJ29"/>
-    <mergeCell ref="AK28:AK29"/>
-    <mergeCell ref="R34:U34"/>
-    <mergeCell ref="R35:U36"/>
-    <mergeCell ref="R37:U38"/>
-    <mergeCell ref="R39:U40"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="I10:K11"/>
+    <mergeCell ref="AB10:AD11"/>
+    <mergeCell ref="R11:U13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AB13:AD14"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:N21"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="R14:U16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="R19:U22"/>
+    <mergeCell ref="Y20:AB21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="Y23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B57:B58"/>
@@ -5376,50 +5275,151 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:N21"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="R14:U16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="R19:U22"/>
-    <mergeCell ref="Y20:AB21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="Y23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="I10:K11"/>
-    <mergeCell ref="AB10:AD11"/>
-    <mergeCell ref="R11:U13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AB13:AD14"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AK25:AK26"/>
+    <mergeCell ref="AJ28:AJ29"/>
+    <mergeCell ref="AK28:AK29"/>
+    <mergeCell ref="R34:U34"/>
+    <mergeCell ref="R35:U36"/>
+    <mergeCell ref="R37:U38"/>
+    <mergeCell ref="R39:U40"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="V42:X43"/>
+    <mergeCell ref="O45:Q46"/>
+    <mergeCell ref="V45:X46"/>
+    <mergeCell ref="AG28:AG29"/>
+    <mergeCell ref="AB30:AD31"/>
+    <mergeCell ref="AJ30:AJ31"/>
+    <mergeCell ref="AK30:AK31"/>
+    <mergeCell ref="R32:U33"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AB33:AD34"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AJ35:AJ36"/>
+    <mergeCell ref="AK35:AK36"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AJ40:AJ41"/>
+    <mergeCell ref="AK40:AK41"/>
+    <mergeCell ref="AJ47:AJ48"/>
+    <mergeCell ref="AK47:AK48"/>
+    <mergeCell ref="AJ49:AJ50"/>
+    <mergeCell ref="AK49:AK50"/>
+    <mergeCell ref="AJ52:AJ53"/>
+    <mergeCell ref="AK52:AK53"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="AG49:AG50"/>
+    <mergeCell ref="AG52:AG53"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="I30:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="I74:K75"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K78"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="I54:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K58"/>
+    <mergeCell ref="K64:N65"/>
+    <mergeCell ref="K67:N68"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="AB54:AD55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AB57:AD58"/>
+    <mergeCell ref="AJ57:AJ58"/>
+    <mergeCell ref="AK57:AK58"/>
+    <mergeCell ref="AG59:AG60"/>
+    <mergeCell ref="AJ59:AJ60"/>
+    <mergeCell ref="AK59:AK60"/>
+    <mergeCell ref="AJ62:AJ63"/>
+    <mergeCell ref="AK62:AK63"/>
+    <mergeCell ref="AJ72:AJ73"/>
+    <mergeCell ref="AJ74:AJ75"/>
+    <mergeCell ref="AJ77:AJ78"/>
+    <mergeCell ref="AJ79:AJ80"/>
+    <mergeCell ref="AJ82:AJ83"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="AK74:AK75"/>
+    <mergeCell ref="AK77:AK78"/>
+    <mergeCell ref="AK79:AK80"/>
+    <mergeCell ref="AK82:AK83"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AJ64:AJ65"/>
+    <mergeCell ref="AK64:AK65"/>
+    <mergeCell ref="AJ67:AJ68"/>
+    <mergeCell ref="AK67:AK68"/>
+    <mergeCell ref="AJ69:AJ70"/>
+    <mergeCell ref="AK69:AK70"/>
+    <mergeCell ref="AK72:AK73"/>
+    <mergeCell ref="AG79:AG80"/>
+    <mergeCell ref="AG82:AG83"/>
+    <mergeCell ref="N83:Y85"/>
+    <mergeCell ref="AG62:AG63"/>
+    <mergeCell ref="Y64:AB65"/>
+    <mergeCell ref="Y67:AB68"/>
+    <mergeCell ref="AG69:AG70"/>
+    <mergeCell ref="AG72:AG73"/>
+    <mergeCell ref="AB74:AD75"/>
+    <mergeCell ref="AB77:AD78"/>
   </mergeCells>
   <dataValidations count="56">
     <dataValidation type="list" allowBlank="1" sqref="F82" xr:uid="{00000000-0002-0000-0000-000000000000}">
